--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -4,23 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ключевые риски" sheetId="2" r:id="rId2"/>
+    <sheet name="Сведения о значениях целей" sheetId="3" r:id="rId3"/>
+    <sheet name="Статус исполнения бюджета" sheetId="4" r:id="rId4"/>
+    <sheet name="Сведения об исполнении бюджета" sheetId="5" r:id="rId5"/>
+    <sheet name="Статус достижения результатов" sheetId="6" r:id="rId6"/>
+    <sheet name="Динамика достижения контрольный" sheetId="7" r:id="rId7"/>
+    <sheet name="Cведения о достижении результат" sheetId="8" r:id="rId8"/>
+    <sheet name="Информация о значениях показат" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">'Титульный лист'!$B$20</definedName>
     <definedName name="_ftnref1" localSheetId="0">'Титульный лист'!$H$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ключевые риски'!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t xml:space="preserve">Руководитель </t>
   </si>
@@ -134,12 +141,253 @@
     <t>5. Контрольные
  точки</t>
   </si>
+  <si>
+    <t>1. Ключевые риски</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Наименование соответствующего раздела паспорта проекта</t>
+  </si>
+  <si>
+    <t>Краткое описание риска</t>
+  </si>
+  <si>
+    <t>Предлагаемые решения</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>2. Сведения о значениях целей и показателей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование целей и показателей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Единица измерения
+(по ОКЕИ)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фактическое
+значение за предыдущий год
+</t>
+  </si>
+  <si>
+    <t>Значения по кварталам</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Плановое значение на конец года</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процент
+достижения 
+</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Статус исполнения бюджета </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>финансовый год.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> При построении диаграмм учитывается объем финансового обеспечения реализации федерального проекта (в разрезе источников финансирования), предусмотренный на  текущий </t>
+    </r>
+  </si>
+  <si>
+    <t>Фактически исполнено</t>
+  </si>
+  <si>
+    <t>Риски исполнения</t>
+  </si>
+  <si>
+    <t>Остаток финансовых средств</t>
+  </si>
+  <si>
+    <t>(построение диаграммы (графика) осуществляется с использованием информационной системы проектной деятельности)</t>
+  </si>
+  <si>
+    <t>Сведения об исполнении бюджета</t>
+  </si>
+  <si>
+    <t>(сведения об исполнении бюджета подготавливаются с использованием ГИС "Электронный бюджет")</t>
+  </si>
+  <si>
+    <t>Наименование результата федерального проекта и источника финансового обеспечения</t>
+  </si>
+  <si>
+    <t>Объем финансового обеспечение, млн. рублей</t>
+  </si>
+  <si>
+    <t>Предусмотрено паспортом федерального проекта</t>
+  </si>
+  <si>
+    <t>Сводная бюджетная роспись</t>
+  </si>
+  <si>
+    <t>Лимиты бюджетных обязательств</t>
+  </si>
+  <si>
+    <t>Исполнение, млн. рублей</t>
+  </si>
+  <si>
+    <t>Учтенные бюджетные обязательства</t>
+  </si>
+  <si>
+    <t>Кассовое исполнение</t>
+  </si>
+  <si>
+    <t>Процент исполнения (8)/(5)*100</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>(указывается наименование задачи национального проекта)</t>
+  </si>
+  <si>
+    <t>(указывается наименование результата федерального проекта), в том числе:</t>
+  </si>
+  <si>
+    <t>федеральный бюджет</t>
+  </si>
+  <si>
+    <t>бюджеты государственных внебюджетных фондов Российской Федерации</t>
+  </si>
+  <si>
+    <t>консолидированные бюджеты субъектов Российской Федерации</t>
+  </si>
+  <si>
+    <t>внебюджетные источники</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Всего по федеральному проекту за счет всех источников, в том числе:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    федеральный бюджет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    внебюджетные источники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    бюджеты государственных
+    внебюджетных фондов Российской
+    Федерации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    консолидированные бюджеты субъектов
+    Российской Федерации</t>
+  </si>
+  <si>
+    <t>4. Статус достижения результатов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус </t>
+  </si>
+  <si>
+    <t>Наименование результата</t>
+  </si>
+  <si>
+    <t>Достижение контрольных точек</t>
+  </si>
+  <si>
+    <t>5. Динамика достижения контрольных точек</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Федеральный бюджет на (указывается дата)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +395,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -161,6 +416,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -238,8 +508,32 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,12 +542,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -382,163 +706,309 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,6 +1022,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9140419947507584E-3"/>
+                  <c:y val="-7.1834354039078452E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2388230882904346E-2"/>
+                  <c:y val="3.6326687611301339E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2943569553805776E-2"/>
+                  <c:y val="4.2081875182268885E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Статус исполнения бюджета'!$A$38:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Фактически исполнено</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Риски исполнения</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Остаток финансовых средств</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Статус исполнения бюджета'!$D$38:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>Основной</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Диаграмма 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3505200" y="628650"/>
+          <a:ext cx="2438400" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Диаграмма 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6534150" y="904875"/>
+          <a:ext cx="2152650" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7170" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7170"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,76 +1670,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="5.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="6.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="23" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.28515625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="5.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="6.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="23" style="4" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="3.28515625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="8" spans="2:26" ht="35.25" x14ac:dyDescent="0.45">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -935,14 +1762,14 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="2:26" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -965,14 +1792,14 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="2:26" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -984,9 +1811,9 @@
       <c r="P10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="17" t="s">
         <v>19</v>
       </c>
@@ -997,64 +1824,64 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="2:26" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="5"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="15" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="I11" s="7"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" spans="2:26" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="21" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
     </row>
     <row r="13" spans="2:26" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="58" t="s">
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="22" t="s">
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="60"/>
-      <c r="X13" s="28" t="s">
+      <c r="W13" s="38"/>
+      <c r="X13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.4">
       <c r="M18" s="18"/>
@@ -1086,42 +1913,42 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
     </row>
     <row r="20" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="59" t="s">
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
     </row>
     <row r="21" spans="1:27" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
@@ -1150,9 +1977,9 @@
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
     </row>
     <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
@@ -1179,9 +2006,9 @@
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
     </row>
     <row r="23" spans="1:27" ht="114.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
@@ -1195,24 +2022,24 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="56"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="37"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
     </row>
     <row r="24" spans="1:27" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
@@ -1241,9 +2068,9 @@
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
     </row>
     <row r="25" spans="1:27" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A25" s="17"/>
@@ -1270,238 +2097,229 @@
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
     </row>
     <row r="26" spans="1:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="26" t="s">
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="34" t="s">
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34" t="s">
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="49" t="s">
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
     </row>
     <row r="27" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
     </row>
     <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
     </row>
     <row r="29" spans="1:27" ht="10.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
     </row>
     <row r="30" spans="1:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27" t="s">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="48" t="s">
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48" t="s">
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48" t="s">
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="U30:X30"/>
@@ -1518,10 +2336,19 @@
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:O26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="L23:Q23"/>
     <mergeCell ref="P26:T26"/>
     <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:T27"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
@@ -1530,9 +2357,985 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.6889763779527559" bottom="0.8858267716535434" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+    </row>
+    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.6889763779527559" bottom="0.8858267716535434" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="56"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="57"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="53"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="53"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.6889763779527559" bottom="0.8858267716535434" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="88"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <v>1</v>
+      </c>
+      <c r="B7" s="52">
+        <v>2</v>
+      </c>
+      <c r="C7" s="52">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52">
+        <v>4</v>
+      </c>
+      <c r="E7" s="52">
+        <v>5</v>
+      </c>
+      <c r="F7" s="52">
+        <v>6</v>
+      </c>
+      <c r="G7" s="52">
+        <v>7</v>
+      </c>
+      <c r="H7" s="52">
+        <v>8</v>
+      </c>
+      <c r="I7" s="52">
+        <v>9</v>
+      </c>
+      <c r="J7" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>1</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.6889763779527559" bottom="0.8858267716535434" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+    </row>
+    <row r="3" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91">
+        <v>1</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="108"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="106">
+        <v>4</v>
+      </c>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="91">
+        <v>2</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="108"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="106">
+        <v>2</v>
+      </c>
+      <c r="F8" s="106"/>
+      <c r="G8" s="110">
+        <v>2</v>
+      </c>
+      <c r="H8" s="110"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="100"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="91">
+        <v>3</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="108"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="106">
+        <v>2</v>
+      </c>
+      <c r="F11" s="106"/>
+      <c r="G11" s="110">
+        <v>2</v>
+      </c>
+      <c r="H11" s="110"/>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.6889763779527559" bottom="0.8858267716535434" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Excel.Chart.8" shapeId="7170" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Excel.Chart.8" shapeId="7170" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1540,11 +3343,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" state="visible" r:id="rId2"/>
@@ -1244,7 +1244,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1451,7 +1451,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1658,7 +1658,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1831,7 +1831,7 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
@@ -1870,9 +1870,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>86400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -1886,8 +1886,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5997600" y="1590840"/>
-        <a:ext cx="1757520" cy="1309320"/>
+        <a:off x="6140880" y="1591200"/>
+        <a:ext cx="2027880" cy="1308960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1900,13 +1900,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>241200</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
@@ -1916,8 +1916,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3092040" y="1613520"/>
-        <a:ext cx="1757520" cy="1309320"/>
+        <a:off x="3092400" y="1613520"/>
+        <a:ext cx="1900080" cy="1309320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1932,7 +1932,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>296640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -1946,8 +1946,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="296640" y="1591920"/>
-        <a:ext cx="1757520" cy="1309320"/>
+        <a:off x="296640" y="1592280"/>
+        <a:ext cx="1757520" cy="1308960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1967,7 +1967,7 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection pane="topLeft" activeCell="U30" activeCellId="0" sqref="U30"/>
     </sheetView>
   </sheetViews>
@@ -2876,14 +2876,21 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,8 +3115,8 @@
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3178,7 +3185,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="82" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>58</v>

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" state="visible" r:id="rId2"/>
@@ -600,7 +600,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,7 +616,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
-        <bgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -631,20 +631,8 @@
         <bgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF9BBB59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -715,20 +703,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -755,7 +729,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1012,10 +986,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1028,10 +998,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1124,48 +1090,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1225,12 +1159,12 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1244,7 +1178,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1451,7 +1385,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1658,7 +1592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1876,9 +1810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1886,8 +1820,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6140880" y="1591200"/>
-        <a:ext cx="2027880" cy="1308960"/>
+        <a:off x="6137640" y="1591200"/>
+        <a:ext cx="2027520" cy="1308600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1906,9 +1840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1916,8 +1850,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3092400" y="1613520"/>
-        <a:ext cx="1900080" cy="1309320"/>
+        <a:off x="3089880" y="1613520"/>
+        <a:ext cx="1900440" cy="1308960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1936,9 +1870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1947,7 +1881,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1592280"/>
-        <a:ext cx="1757520" cy="1308960"/>
+        <a:ext cx="1755000" cy="1308600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1967,19 +1901,19 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U30" activeCellId="0" sqref="U30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.71"/>
@@ -1987,17 +1921,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,80 +2704,80 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="57" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="57" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="64" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="57" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="57" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="63"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="66"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2883,7 +2817,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.67"/>
@@ -2894,23 +2828,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
@@ -2934,12 +2868,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="G4" s="58" t="s">
         <v>53</v>
       </c>
@@ -2951,46 +2885,46 @@
       </c>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
-      <c r="O4" s="70"/>
+      <c r="O4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="G5" s="69" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="G5" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="L5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="L5" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="58" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="58"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
       <c r="M6" s="58" t="s">
         <v>56</v>
       </c>
       <c r="N6" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
       <c r="H7" s="58" t="s">
         <v>56</v>
       </c>
@@ -2998,54 +2932,54 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="77"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76" t="s">
+      <c r="E20" s="75"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="78"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76" t="s">
+      <c r="E21" s="76"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="70"/>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="77" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="79" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="58"/>
@@ -3062,19 +2996,19 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="L38" s="76"/>
+      <c r="A38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="L38" s="74"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="L39" s="76"/>
+      <c r="A39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="L39" s="74"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="L40" s="76"/>
+      <c r="A40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="L40" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3120,6 +3054,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="58" t="s">
@@ -3161,62 +3098,62 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="82" t="n">
+      <c r="E4" s="80" t="n">
         <v>400</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="82" t="n">
+      <c r="J4" s="80" t="n">
         <v>400</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="82" t="n">
+      <c r="O4" s="80" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="82" t="n">
+      <c r="E5" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="82" t="n">
+      <c r="J5" s="80" t="n">
         <v>500</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="82" t="n">
+      <c r="O5" s="80" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="82" t="n">
+      <c r="E6" s="80" t="n">
         <v>300</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="82" t="n">
+      <c r="J6" s="80" t="n">
         <v>600</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="82" t="n">
+      <c r="O6" s="80" t="n">
         <v>900</v>
       </c>
     </row>
@@ -3259,309 +3196,309 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="5" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="82" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="86" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="87" t="n">
+      <c r="A7" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="88" t="n">
+      <c r="B7" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="88" t="n">
+      <c r="C7" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="88" t="n">
+      <c r="D7" s="86" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="88" t="n">
+      <c r="E7" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="88" t="n">
+      <c r="F7" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="88" t="n">
+      <c r="G7" s="86" t="n">
         <v>7</v>
       </c>
-      <c r="H7" s="88" t="n">
+      <c r="H7" s="86" t="n">
         <v>8</v>
       </c>
-      <c r="I7" s="88" t="n">
+      <c r="I7" s="86" t="n">
         <v>9</v>
       </c>
-      <c r="J7" s="88" t="n">
+      <c r="J7" s="86" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89" t="n">
+      <c r="A8" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
     </row>
     <row r="17" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
     </row>
     <row r="18" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3595,196 +3532,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="90" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="91" width="54.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="90" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="90" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="90" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="87"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="87"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="87" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="87"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="102" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="98"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="87" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="102" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="98"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="87"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.688888888888889" bottom="0.886111111111111" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3813,40 +3613,40 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -5,19 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Ключевые риски" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Сведения о значениях целей" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Статус исполнения бюджета" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Данные для диаграмм" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Сведения об исполнении бюджета" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Статус достижения результатов" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Динамика достижения контрольный" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Cведения о достижении результат" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Информация о значениях показат" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Сведения об исполнении бюджета" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Статус достижения результатов" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Данные для диаграмм" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Ключевые риски'!$A$1:$E$27</definedName>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t xml:space="preserve">Руководитель </t>
   </si>
@@ -132,15 +129,6 @@
  точки</t>
   </si>
   <si>
-    <t xml:space="preserve">наличие критических отклонений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">наличие отклонений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отсутствие отклонений</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
@@ -312,15 +300,6 @@
     <t xml:space="preserve">финансовый год.</t>
   </si>
   <si>
-    <t xml:space="preserve">Федеральный бюджет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сумма</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сведения об исполнении бюджета</t>
   </si>
   <si>
@@ -420,19 +399,26 @@
     <t xml:space="preserve">Достижение контрольных точек</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Динамика достижения контрольных точек</t>
+    <t xml:space="preserve">Федеральный бюджет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сумма</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="000"/>
     <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -729,7 +715,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1050,10 +1036,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,8 +1084,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1178,7 +1160,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1232,7 +1214,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="000" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
               <c:txPr>
@@ -1385,7 +1367,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1439,7 +1421,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="000" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
               <c:txPr>
@@ -1592,7 +1574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1646,7 +1628,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="000" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
               <c:txPr>
@@ -1810,9 +1792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1820,8 +1802,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6137640" y="1591200"/>
-        <a:ext cx="2027520" cy="1308600"/>
+        <a:off x="6152400" y="1591200"/>
+        <a:ext cx="2026440" cy="1308240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1840,9 +1822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>161640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1850,8 +1832,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3089880" y="1613520"/>
-        <a:ext cx="1900440" cy="1308960"/>
+        <a:off x="3102840" y="1613520"/>
+        <a:ext cx="1895400" cy="1308600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1870,9 +1852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1881,7 +1863,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1592280"/>
-        <a:ext cx="1755000" cy="1308600"/>
+        <a:ext cx="1764360" cy="1308240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1901,19 +1883,19 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U30" activeCellId="0" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.71"/>
@@ -1921,17 +1903,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,34 +2445,24 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="49" t="s">
-        <v>25</v>
-      </c>
+      <c r="D30" s="49"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
-      <c r="H30" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
-      <c r="L30" s="50" t="s">
-        <v>27</v>
-      </c>
+      <c r="L30" s="50"/>
       <c r="M30" s="50"/>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
-      <c r="P30" s="50" t="s">
-        <v>27</v>
-      </c>
+      <c r="P30" s="50"/>
       <c r="Q30" s="50"/>
       <c r="R30" s="50"/>
       <c r="S30" s="50"/>
       <c r="T30" s="50"/>
-      <c r="U30" s="50" t="s">
-        <v>26</v>
-      </c>
+      <c r="U30" s="50"/>
       <c r="V30" s="50"/>
       <c r="W30" s="50"/>
       <c r="X30" s="50"/>
@@ -2505,7 +2477,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="52"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -2514,7 +2486,7 @@
     </row>
     <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2523,7 +2495,7 @@
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2542,7 +2514,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="55"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,32 +2562,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2623,7 +2569,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2634,12 +2580,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -2655,19 +2601,19 @@
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="E3" s="63" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2637,7 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -2706,12 +2652,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="57" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="57" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="57" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -2727,34 +2673,34 @@
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>40</v>
       </c>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L3" s="65" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2764,16 +2710,16 @@
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
       <c r="F4" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="65" t="s">
         <v>44</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>47</v>
       </c>
       <c r="J4" s="65"/>
       <c r="K4" s="65"/>
@@ -2809,27 +2755,27 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -2848,20 +2794,20 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="F3" s="1"/>
       <c r="G3" s="58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
       <c r="J3" s="58"/>
       <c r="L3" s="58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M3" s="58"/>
       <c r="N3" s="58"/>
@@ -2869,19 +2815,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="G4" s="58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
       <c r="L4" s="58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
@@ -2889,36 +2835,36 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
       <c r="G5" s="67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="67"/>
       <c r="L5" s="69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="58"/>
       <c r="G6" s="69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
       <c r="M6" s="58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N6" s="58"/>
     </row>
@@ -2926,17 +2872,16 @@
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="H7" s="58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I7" s="58"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="71"/>
       <c r="F19" s="72"/>
       <c r="G19" s="73"/>
       <c r="H19" s="74" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2944,7 +2889,7 @@
       <c r="F20" s="72"/>
       <c r="G20" s="73"/>
       <c r="H20" s="74" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2952,7 +2897,7 @@
       <c r="F21" s="72"/>
       <c r="G21" s="73"/>
       <c r="H21" s="74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,17 +2905,17 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="79" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,7 +2926,7 @@
       <c r="A32" s="78"/>
       <c r="B32" s="78"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="58"/>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
@@ -2994,18 +2939,17 @@
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="74"/>
       <c r="G38" s="74"/>
       <c r="L38" s="74"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="74"/>
       <c r="G39" s="74"/>
       <c r="L39" s="74"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="74"/>
       <c r="G40" s="74"/>
       <c r="L40" s="74"/>
@@ -3047,145 +2991,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:O36"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="G2" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="L2" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="80" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="80" t="n">
-        <v>400</v>
-      </c>
-      <c r="L4" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="80" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="80" t="n">
-        <v>500</v>
-      </c>
-      <c r="L5" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="80" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="80" t="n">
-        <v>300</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="80" t="n">
-        <v>600</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="80" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:N2"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3195,17 +3003,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -3218,19 +3026,19 @@
       <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="67" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -3243,262 +3051,262 @@
       <c r="J3" s="67"/>
     </row>
     <row r="5" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="G6" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82" t="s">
+      <c r="H6" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="85" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" s="85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="84" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+    </row>
+    <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="86" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="86" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="86" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="86" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="86" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" s="86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" s="86" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-    </row>
-    <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-    </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89" t="s">
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+    </row>
+    <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-    </row>
-    <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="89" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88" t="s">
+      <c r="F13" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-    </row>
-    <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="89" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+    </row>
+    <row r="17" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-    </row>
-    <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="89" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-    </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-    </row>
-    <row r="17" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-    </row>
-    <row r="18" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3527,35 +3335,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="90" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="91" width="54.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="90" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="90" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="90" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="89" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="90" width="54.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="89" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="89" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="89" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
@@ -3563,23 +3371,23 @@
       <c r="N1" s="68"/>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="A3" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3596,95 +3404,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="B2:O6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="G2" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="L2" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="92" t="n">
+        <v>400</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="92" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="92" t="n">
+        <v>500</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="92" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="92" t="n">
+        <v>300</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="92" t="n">
+        <v>600</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="92" t="n">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L37" activeCellId="0" sqref="L37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -14,7 +14,8 @@
     <sheet name="Статус исполнения бюджета" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Сведения об исполнении бюджета" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Статус достижения результатов" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Данные для диаграмм" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Динамика достижения КП" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Данные для диаграмм" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Ключевые риски'!$A$1:$E$27</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t xml:space="preserve">Руководитель </t>
   </si>
@@ -399,6 +400,18 @@
     <t xml:space="preserve">Достижение контрольных точек</t>
   </si>
   <si>
+    <t xml:space="preserve">5. Динамика достижения контрольных точек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Просрочено контрольных точек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Риски несвоевременного достижения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">контрольных точек</t>
+  </si>
+  <si>
     <t xml:space="preserve">Федеральный бюджет</t>
   </si>
   <si>
@@ -406,21 +419,74 @@
   </si>
   <si>
     <t xml:space="preserve">сумма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Факт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прогноз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">процент отставания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Апр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Май</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Июн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Июл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дек</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="000"/>
     <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;Основной&quot;"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -585,6 +651,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF595959"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -602,7 +686,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -690,7 +774,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,8 +798,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1084,18 +1172,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Обычный 8" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1113,8 +1214,8 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF558ED5"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1122,7 +1223,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1139,22 +1240,22 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF558ED5"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FFA6A6A6"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF69AB42"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF404040"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1781,6 +1882,2060 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0068365756798874"/>
+          <c:y val="0.0406292440018108"/>
+          <c:w val="0.970642939727542"/>
+          <c:h val="0.863965595291987"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"План"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>План</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="558ed5"/>
+            </a:solidFill>
+            <a:ln w="38160">
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="558ed5"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="558ed5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Янв</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Фев</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Мар</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апр</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июн</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июл</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Авг</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сент</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Окт</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноя</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Дек</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для диаграмм'!$C$10:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Факт"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Факт</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="69ab42"/>
+            </a:solidFill>
+            <a:ln w="38160">
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="69ab42"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="69ab42"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Янв</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Фев</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Мар</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апр</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июн</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июл</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Авг</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сент</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Окт</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноя</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Дек</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для диаграмм'!$D$10:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Прогноз"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прогноз</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92d050"/>
+            </a:solidFill>
+            <a:ln w="254160">
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:ln w="254160">
+                <a:solidFill>
+                  <a:srgbClr val="92d050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:ln w="254160">
+                <a:solidFill>
+                  <a:srgbClr val="92d050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:ln w="254160">
+                <a:solidFill>
+                  <a:srgbClr val="92d050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="92d050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:ln w="38160">
+                <a:solidFill>
+                  <a:srgbClr val="92d050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:ln w="254160">
+                <a:solidFill>
+                  <a:srgbClr val="92d050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:p>
+                    <a:fld id="{C6E532D1-94AA-4530-83CD-9D8D3881F47C}" type="VALUE">
+                      <a:rPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+                        <a:latin typeface="Arial"/>
+                      </a:rPr>
+                      <a:t>[ЗНАЧЕНИЕ]</a:t>
+                    </a:fld>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+                        <a:latin typeface="Arial"/>
+                      </a:rPr>
+                      <a:t>[ЗНАЧ</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="404040"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Янв</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Фев</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Мар</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апр</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июн</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июл</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Авг</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сент</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Окт</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноя</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Дек</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для диаграмм'!$E$10:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Процент отставания"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Процент отставания</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffffff"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:ln w="28440">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="a6a6a6"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="a6a6a6"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="a6a6a6"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="a6a6a6"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="a6a6a6"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="a6a6a6"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Янв</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Фев</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Мар</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апр</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июн</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июл</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Авг</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сент</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Окт</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноя</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Дек</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для диаграмм'!$F$10:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="5321685"/>
+        <c:axId val="17884931"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5321685"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17884931"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17884931"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5321685"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.839733164133876"/>
+          <c:y val="0.579528502051016"/>
+          <c:w val="0.158500660479201"/>
+          <c:h val="0.335634968705835"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1792,9 +3947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1803,7 +3958,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6152400" y="1591200"/>
-        <a:ext cx="2026440" cy="1308240"/>
+        <a:ext cx="2025360" cy="1307160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1822,9 +3977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1833,7 +3988,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3102840" y="1613520"/>
-        <a:ext cx="1895400" cy="1308600"/>
+        <a:ext cx="1894320" cy="1307520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1852,9 +4007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1863,11 +4018,46 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1592280"/>
-        <a:ext cx="1764360" cy="1308240"/>
+        <a:ext cx="1763280" cy="1307160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="661320" y="1619280"/>
+        <a:ext cx="7315560" cy="3180600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1889,13 +4079,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.71"/>
@@ -1903,17 +4093,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,7 +4842,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="57" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="57" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="57" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3004,10 +5194,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -3343,7 +5533,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3409,10 +5599,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:O21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3422,7 +5691,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="58" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -3441,41 +5710,41 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="92" t="n">
+      <c r="E4" s="94" t="n">
         <v>400</v>
       </c>
       <c r="G4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="92" t="n">
+      <c r="J4" s="94" t="n">
         <v>400</v>
       </c>
       <c r="L4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="92" t="n">
+      <c r="O4" s="94" t="n">
         <v>700</v>
       </c>
     </row>
@@ -3483,19 +5752,19 @@
       <c r="B5" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="92" t="n">
+      <c r="E5" s="94" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="92" t="n">
+      <c r="J5" s="94" t="n">
         <v>500</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="92" t="n">
+      <c r="O5" s="94" t="n">
         <v>800</v>
       </c>
     </row>
@@ -3503,20 +5772,145 @@
       <c r="B6" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="92" t="n">
+      <c r="E6" s="94" t="n">
         <v>300</v>
       </c>
       <c r="G6" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="92" t="n">
+      <c r="J6" s="94" t="n">
         <v>600</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="92" t="n">
+      <c r="O6" s="94" t="n">
         <v>900</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="95" t="e">
+        <f aca="false">1-D10/C10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="95" t="e">
+        <f aca="false">1-D11/C11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="95" t="e">
+        <f aca="false">1-D12/C12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="95" t="e">
+        <f aca="false">1-D13/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="95" t="e">
+        <f aca="false">1-D14/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="95" t="e">
+        <f aca="false">1-D15/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="95" t="e">
+        <f aca="false">1-D16/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="95" t="e">
+        <f aca="false">1-D17/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="95" t="e">
+        <f aca="false">1-D18/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="95" t="e">
+        <f aca="false">1-D19/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="95" t="e">
+        <f aca="false">1-D20/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="95" t="e">
+        <f aca="false">1-D21/C21</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -14,10 +14,11 @@
     <sheet name="Статус исполнения бюджета" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Сведения об исполнении бюджета" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Статус достижения результатов" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Динамика достижения КП" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Динамика достижения КТ" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Данные для диаграмм" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Динамика достижения КТ'!$A$1:$N$33</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Ключевые риски'!$A$1:$E$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_ftn1" vbProcedure="false">'Титульный лист'!$B$20</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_ftnref1" vbProcedure="false">'Титульный лист'!$H$1</definedName>
@@ -486,7 +487,7 @@
     <numFmt numFmtId="170" formatCode="0%"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -658,6 +659,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFA6A6A6"/>
       <name val="Times New Roman"/>
@@ -668,6 +675,13 @@
       <color rgb="FF595959"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -803,7 +817,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1184,7 +1198,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1893,10 +1923,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0068365756798874"/>
-          <c:y val="0.0406292440018108"/>
-          <c:w val="0.970642939727542"/>
-          <c:h val="0.863965595291987"/>
+          <c:x val="0.00770509753031345"/>
+          <c:y val="0.0555648256299016"/>
+          <c:w val="0.992294902469686"/>
+          <c:h val="0.865092608042716"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1907,7 +1937,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"План"</c:f>
+              <c:f>'Данные для диаграмм'!$C$9:$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2105,7 +2135,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
               <c:txPr>
@@ -2122,7 +2152,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2145,7 +2175,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2168,7 +2198,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2191,7 +2221,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2214,7 +2244,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2237,7 +2267,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2260,7 +2290,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2283,7 +2313,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2306,7 +2336,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2329,7 +2359,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2352,7 +2382,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2375,7 +2405,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2500,7 +2530,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>"Факт"</c:f>
+              <c:f>'Данные для диаграмм'!$D$9:$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2698,7 +2728,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
               <c:txPr>
@@ -2715,7 +2745,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2738,7 +2768,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2761,7 +2791,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2784,7 +2814,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2807,7 +2837,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2830,7 +2860,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2853,7 +2883,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2876,7 +2906,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2899,7 +2929,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2922,7 +2952,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2945,7 +2975,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2968,7 +2998,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3093,7 +3123,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>"Прогноз"</c:f>
+              <c:f>'Данные для диаграмм'!$E$9:$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3110,6 +3140,7 @@
               <a:solidFill>
                 <a:srgbClr val="92d050"/>
               </a:solidFill>
+              <a:custDash/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -3132,6 +3163,7 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
+                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3146,6 +3178,7 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
+                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3160,6 +3193,7 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
+                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3174,6 +3208,7 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
+                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3188,6 +3223,7 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
+                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3202,6 +3238,7 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
+                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3485,11 +3522,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"Процент отставания"</c:f>
+              <c:f>'Данные для диаграмм'!$F$9:$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Процент отставания</c:v>
+                  <c:v>процент отставания</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3802,11 +3839,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5321685"/>
-        <c:axId val="17884931"/>
+        <c:axId val="13211910"/>
+        <c:axId val="72898114"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5321685"/>
+        <c:axId val="13211910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,14 +3875,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17884931"/>
+        <c:crossAx val="72898114"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17884931"/>
+        <c:axId val="72898114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -3853,7 +3890,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3879,13 +3916,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5321685"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="13211910"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
-        <a:ln w="25560">
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3895,10 +3934,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.839733164133876"/>
-          <c:y val="0.579528502051016"/>
-          <c:w val="0.158500660479201"/>
-          <c:h val="0.335634968705835"/>
+          <c:x val="0.820358494455209"/>
+          <c:y val="0.591504421416563"/>
+          <c:w val="0.158500666474282"/>
+          <c:h val="0.335634939480575"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3947,9 +3986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3958,7 +3997,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6152400" y="1591200"/>
-        <a:ext cx="2025360" cy="1307160"/>
+        <a:ext cx="2024280" cy="1306080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3977,9 +4016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3988,7 +4027,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3102840" y="1613520"/>
-        <a:ext cx="1894320" cy="1307520"/>
+        <a:ext cx="1893240" cy="1306440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4007,9 +4046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>214920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4018,7 +4057,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1592280"/>
-        <a:ext cx="1763280" cy="1307160"/>
+        <a:ext cx="1762200" cy="1306080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4035,25 +4074,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485280</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="661320" y="1619280"/>
-        <a:ext cx="7315560" cy="3180600"/>
+        <a:off x="590400" y="1181160"/>
+        <a:ext cx="8876880" cy="4314600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4066,6 +4105,30 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="J9:N13" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name=""/>
+    <tableColumn id="2" name=""/>
+    <tableColumn id="3" name=""/>
+    <tableColumn id="4" name=""/>
+    <tableColumn id="5" name=""/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="J15:N19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name=""/>
+    <tableColumn id="2" name=""/>
+    <tableColumn id="3" name=""/>
+    <tableColumn id="4" name=""/>
+    <tableColumn id="5" name=""/>
+  </tableColumns>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4073,19 +4136,19 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U30" activeCellId="0" sqref="U30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.71"/>
@@ -4093,17 +4156,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4905,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="57" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="57" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="57" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5194,10 +5257,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -5601,15 +5664,15 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,8 +5743,8 @@
   </sheetPr>
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5788,7 +5851,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="74" t="s">
         <v>99</v>
       </c>
@@ -5804,48 +5867,73 @@
       <c r="F9" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="95" t="e">
+      <c r="F10" s="96" t="e">
         <f aca="false">1-D10/C10</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="95"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="95" t="e">
+      <c r="F11" s="96" t="e">
         <f aca="false">1-D11/C11</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="95"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="95" t="e">
+      <c r="F12" s="96" t="e">
         <f aca="false">1-D12/C12</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="95"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="95" t="e">
+      <c r="F13" s="96" t="e">
         <f aca="false">1-D13/C13</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="J13" s="95"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="95" t="e">
+      <c r="F14" s="96" t="e">
         <f aca="false">1-D14/C14</f>
         <v>#DIV/0!</v>
       </c>
@@ -5854,61 +5942,85 @@
       <c r="B15" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="95" t="e">
+      <c r="F15" s="96" t="e">
         <f aca="false">1-D15/C15</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="N15" s="98"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="95" t="e">
+      <c r="F16" s="96" t="e">
         <f aca="false">1-D16/C16</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="95" t="e">
+      <c r="F17" s="96" t="e">
         <f aca="false">1-D17/C17</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="95" t="e">
+      <c r="F18" s="96" t="e">
         <f aca="false">1-D18/C18</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="95" t="e">
+      <c r="F19" s="96" t="e">
         <f aca="false">1-D19/C19</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="95" t="e">
+      <c r="F20" s="96" t="e">
         <f aca="false">1-D20/C20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="95" t="e">
+      <c r="F21" s="96" t="e">
         <f aca="false">1-D21/C21</f>
         <v>#DIV/0!</v>
       </c>
@@ -5926,5 +6038,9 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -487,7 +487,7 @@
     <numFmt numFmtId="170" formatCode="0%"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -515,14 +515,21 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
@@ -545,7 +552,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -553,21 +560,21 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -575,7 +582,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -583,6 +590,21 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -593,20 +615,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -617,19 +638,12 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -647,6 +661,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -655,12 +676,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -681,7 +696,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -817,7 +832,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,7 +865,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,7 +901,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -890,11 +909,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -918,7 +937,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,7 +945,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -934,15 +953,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -958,7 +977,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1014,19 +1033,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,19 +1053,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,27 +1085,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1090,7 +1113,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1098,10 +1125,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1111,10 +1134,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1126,27 +1145,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1154,11 +1173,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1174,15 +1189,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1194,27 +1209,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1923,10 +1934,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00770509753031345"/>
-          <c:y val="0.0555648256299016"/>
-          <c:w val="0.992294902469686"/>
-          <c:h val="0.865092608042716"/>
+          <c:x val="0.00770541000892205"/>
+          <c:y val="0.0555694618272841"/>
+          <c:w val="0.992254035201557"/>
+          <c:h val="0.864997914059241"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3140,7 +3151,6 @@
               <a:solidFill>
                 <a:srgbClr val="92d050"/>
               </a:solidFill>
-              <a:custDash/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -3163,7 +3173,6 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
-                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3178,7 +3187,6 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
-                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3193,7 +3201,6 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
-                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3208,7 +3215,6 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
-                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3223,7 +3229,6 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
-                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3238,7 +3243,6 @@
                 <a:solidFill>
                   <a:srgbClr val="92d050"/>
                 </a:solidFill>
-                <a:custDash/>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -3839,11 +3843,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="13211910"/>
-        <c:axId val="72898114"/>
+        <c:axId val="5574569"/>
+        <c:axId val="44185623"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13211910"/>
+        <c:axId val="5574569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,14 +3879,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72898114"/>
+        <c:crossAx val="44185623"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72898114"/>
+        <c:axId val="44185623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -3916,7 +3920,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13211910"/>
+        <c:crossAx val="5574569"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3981,14 +3985,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>86400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:colOff>3960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3996,8 +4000,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6152400" y="1591200"/>
-        <a:ext cx="2024280" cy="1306080"/>
+        <a:off x="6152400" y="1478160"/>
+        <a:ext cx="2023920" cy="1305720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4016,9 +4020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:colOff>159120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4026,8 +4030,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3102840" y="1613520"/>
-        <a:ext cx="1893240" cy="1306440"/>
+        <a:off x="3102840" y="1491480"/>
+        <a:ext cx="1892880" cy="1306080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4041,14 +4045,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>296640</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:colOff>214560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4056,8 +4060,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="296640" y="1592280"/>
-        <a:ext cx="1762200" cy="1306080"/>
+        <a:off x="296640" y="1478160"/>
+        <a:ext cx="1761840" cy="1305720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4081,9 +4085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:colOff>95760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4091,8 +4095,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="590400" y="1181160"/>
-        <a:ext cx="8876880" cy="4314600"/>
+        <a:off x="590400" y="1112760"/>
+        <a:ext cx="8876520" cy="4314240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4137,18 +4141,18 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.71"/>
@@ -4156,47 +4160,47 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
@@ -4217,7 +4221,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U8" s="7"/>
@@ -4226,7 +4230,7 @@
       <c r="X8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
@@ -4240,7 +4244,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -4256,29 +4260,29 @@
       <c r="X9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
       <c r="T10" s="7" t="s">
         <v>6</v>
       </c>
@@ -4288,70 +4292,70 @@
       <c r="X10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18" t="s">
+    <row r="11" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="19" t="s">
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="20" t="s">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22" t="s">
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="W13" s="23"/>
-      <c r="X13" s="24" t="s">
+      <c r="W13" s="24"/>
+      <c r="X13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4364,7 +4368,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="N19" s="7"/>
@@ -4378,46 +4382,46 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29" t="s">
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4444,9 +4448,9 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
@@ -4473,9 +4477,9 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
@@ -4489,26 +4493,26 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4535,11 +4539,11 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-    </row>
-    <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4564,181 +4568,181 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="32" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32" t="s">
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="34" t="s">
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-    </row>
-    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="54" t="s">
+    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="4"/>
@@ -4746,8 +4750,8 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="55" t="s">
+    <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="4"/>
@@ -4755,23 +4759,23 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="55"/>
-    </row>
-    <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="55"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="56"/>
+    </row>
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="56"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="55"/>
-    </row>
-    <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="55"/>
+    <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="56"/>
+    </row>
+    <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -4823,49 +4827,49 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="56" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="40.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="59" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="59" width="40.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="59" width="33.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="58" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="65" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4891,92 +4895,92 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="57" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="57" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="57" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="57" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="57" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="59" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="59" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="59" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="59" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="59" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="59" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="59" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="59" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="67" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5009,203 +5013,203 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="58" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="58" width="2.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="58" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="58" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="58" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="58" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="58" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="58" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="58" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="G4" s="58" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="G4" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="L4" s="58" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="68"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="71"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="72" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="L5" s="69" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="L5" s="72" t="s">
         <v>51</v>
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="58" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="G6" s="69" t="s">
+      <c r="C6" s="60"/>
+      <c r="G6" s="72" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="58"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="60"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="58"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74" t="s">
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="75" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="75"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74" t="s">
+      <c r="E20" s="76"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="75" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="76"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="68"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="77" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="71"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="78" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="78" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="79" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="79" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="L38" s="74"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="L39" s="74"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="L40" s="74"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="L38" s="75"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="L39" s="75"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="L40" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5247,112 +5251,113 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="58" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="58" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="58" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="58" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="5" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="83" t="s">
+    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="84" t="n">
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="82" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="85" t="n">
@@ -5399,7 +5404,7 @@
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
     </row>
-    <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="86" t="s">
         <v>72</v>
       </c>
@@ -5431,7 +5436,7 @@
       <c r="I10" s="86"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="88" t="s">
         <v>76</v>
       </c>
@@ -5447,7 +5452,7 @@
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
     </row>
-    <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="88" t="s">
         <v>78</v>
       </c>
@@ -5463,7 +5468,7 @@
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
     </row>
-    <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="88" t="s">
         <v>80</v>
       </c>
@@ -5599,7 +5604,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="89" width="4.43"/>
@@ -5607,30 +5612,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="89" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="89" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="89" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="58" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="91" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="82" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="86" t="s">
@@ -5665,58 +5670,58 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="58" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="58" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="92"/>
       <c r="B3" s="93"/>
       <c r="C3" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="58" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="58" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
         <v>95</v>
       </c>
@@ -5744,107 +5749,107 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="58" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="58" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="L2" s="58" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="L2" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="74" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="94" t="n">
         <v>400</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="J4" s="94" t="n">
         <v>400</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="O4" s="94" t="n">
         <v>700</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="74" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="75" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="75" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="94" t="n">
         <v>500</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="75" t="s">
         <v>55</v>
       </c>
       <c r="O5" s="94" t="n">
         <v>800</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="74" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="75" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="94" t="n">
         <v>300</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="75" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="94" t="n">
         <v>600</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="75" t="s">
         <v>56</v>
       </c>
       <c r="O6" s="94" t="n">
@@ -5852,19 +5857,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="58" t="s">
         <v>103</v>
       </c>
       <c r="J9" s="95"/>
@@ -5874,7 +5879,7 @@
       <c r="N9" s="95"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="75" t="s">
         <v>104</v>
       </c>
       <c r="F10" s="96" t="e">
@@ -5888,7 +5893,7 @@
       <c r="N10" s="97"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="75" t="s">
         <v>105</v>
       </c>
       <c r="F11" s="96" t="e">
@@ -5902,7 +5907,7 @@
       <c r="N11" s="95"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="96" t="e">
@@ -5916,7 +5921,7 @@
       <c r="N12" s="95"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="75" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="96" t="e">
@@ -5930,7 +5935,7 @@
       <c r="N13" s="95"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F14" s="96" t="e">
@@ -5939,76 +5944,76 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="75" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="96" t="e">
         <f aca="false">1-D15/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="N15" s="98"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="N15" s="95"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F16" s="96" t="e">
         <f aca="false">1-D16/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="75" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="96" t="e">
         <f aca="false">1-D17/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="75" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="96" t="e">
         <f aca="false">1-D18/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="75" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="96" t="e">
         <f aca="false">1-D19/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="74" t="s">
+      <c r="J19" s="95"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="75" t="s">
         <v>114</v>
       </c>
       <c r="F20" s="96" t="e">
@@ -6016,8 +6021,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="74" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="75" t="s">
         <v>115</v>
       </c>
       <c r="F21" s="96" t="e">

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t xml:space="preserve">Руководитель </t>
   </si>
@@ -305,9 +305,6 @@
     <t xml:space="preserve">Сведения об исполнении бюджета</t>
   </si>
   <si>
-    <t xml:space="preserve">(сведения об исполнении бюджета подготавливаются с использованием ГИС "Электронный бюджет")</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование результата федерального проекта и источника финансового обеспечения</t>
   </si>
   <si>
@@ -333,60 +330,6 @@
   </si>
   <si>
     <t xml:space="preserve">Кассовое исполнение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(указывается наименование задачи национального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(указывается наименование результата федерального проекта), в том числе:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">федеральный бюджет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджеты государственных внебюджетных фондов Российской Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">консолидированные бюджеты субъектов Российской Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">внебюджетные источники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего по федеральному проекту за счет всех источников, в том числе:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    федеральный бюджет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    бюджеты государственных
-    внебюджетных фондов Российской
-    Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    консолидированные бюджеты субъектов
-    Российской Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    внебюджетные источники</t>
   </si>
   <si>
     <t xml:space="preserve">4. Статус достижения результатов</t>
@@ -477,15 +420,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="000"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="&quot;Основной&quot;"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;Основной&quot;"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -832,7 +774,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1157,10 +1099,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1170,25 +1108,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1209,7 +1135,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1217,7 +1143,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1302,7 +1228,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1509,7 +1435,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1716,7 +1642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1923,7 +1849,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1934,10 +1860,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00770541000892205"/>
-          <c:y val="0.0555694618272841"/>
-          <c:w val="0.992254035201557"/>
-          <c:h val="0.864997914059241"/>
+          <c:x val="0.00770572251287667"/>
+          <c:y val="0.0555740987983979"/>
+          <c:w val="0.992213164618567"/>
+          <c:h val="0.864903204272363"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3843,11 +3769,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5574569"/>
-        <c:axId val="44185623"/>
+        <c:axId val="89937746"/>
+        <c:axId val="60322108"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5574569"/>
+        <c:axId val="89937746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,14 +3805,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44185623"/>
+        <c:crossAx val="60322108"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44185623"/>
+        <c:axId val="60322108"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -3920,7 +3846,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5574569"/>
+        <c:crossAx val="89937746"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3990,9 +3916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4001,7 +3927,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6152400" y="1478160"/>
-        <a:ext cx="2023920" cy="1305720"/>
+        <a:ext cx="2023560" cy="1305360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4020,9 +3946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>159120</xdr:colOff>
+      <xdr:colOff>158760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4031,7 +3957,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3102840" y="1491480"/>
-        <a:ext cx="1892880" cy="1306080"/>
+        <a:ext cx="1892520" cy="1305720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4050,9 +3976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>214560</xdr:colOff>
+      <xdr:colOff>214200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4061,7 +3987,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1478160"/>
-        <a:ext cx="1761840" cy="1305720"/>
+        <a:ext cx="1761480" cy="1305360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4085,9 +4011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4096,7 +4022,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="590400" y="1112760"/>
-        <a:ext cx="8876520" cy="4314240"/>
+        <a:ext cx="8876160" cy="4313880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4140,8 +4066,8 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4166,7 +4092,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.7"/>
@@ -4895,7 +4821,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5248,18 +5174,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="58" width="13.75"/>
@@ -5283,309 +5209,114 @@
       <c r="I1" s="70"/>
       <c r="J1" s="70"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="s">
+    <row r="3" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-    </row>
-    <row r="5" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="D3" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82" t="s">
+      <c r="J3" s="81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="F4" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="G4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="H4" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82" t="n">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="85" t="n">
+      <c r="B5" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="85" t="n">
+      <c r="C5" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="85" t="n">
+      <c r="D5" s="84" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="85" t="n">
+      <c r="E5" s="84" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="85" t="n">
+      <c r="F5" s="84" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="85" t="n">
+      <c r="G5" s="84" t="n">
         <v>7</v>
       </c>
-      <c r="H7" s="85" t="n">
+      <c r="H5" s="84" t="n">
         <v>8</v>
       </c>
-      <c r="I7" s="85" t="n">
+      <c r="I5" s="84" t="n">
         <v>9</v>
       </c>
-      <c r="J7" s="85" t="n">
+      <c r="J5" s="84" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-    </row>
-    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-    </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-    </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-    </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-    </row>
-    <row r="17" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-    </row>
-    <row r="18" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.688888888888889" bottom="0.886111111111111" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="97" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5606,22 +5337,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="89" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="90" width="54.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="89" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="89" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="89" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="85" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="86" width="54.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="85" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="85" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="85" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="58" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="A1" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="J1" s="71"/>
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
@@ -5629,23 +5360,23 @@
       <c r="N1" s="71"/>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
+      <c r="B3" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5682,7 +5413,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="70" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -5699,10 +5430,10 @@
       <c r="N1" s="70"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="92" t="s">
-        <v>93</v>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="88" t="s">
+        <v>75</v>
       </c>
       <c r="G3" s="58" t="n">
         <v>0</v>
@@ -5715,7 +5446,7 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G5" s="58" t="n">
         <v>0</v>
@@ -5723,7 +5454,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5759,7 +5490,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="60" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -5778,41 +5509,41 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="58" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="94" t="n">
+      <c r="E4" s="90" t="n">
         <v>400</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="94" t="n">
+      <c r="J4" s="90" t="n">
         <v>400</v>
       </c>
       <c r="L4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="94" t="n">
+      <c r="O4" s="90" t="n">
         <v>700</v>
       </c>
     </row>
@@ -5820,19 +5551,19 @@
       <c r="B5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="94" t="n">
+      <c r="E5" s="90" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="94" t="n">
+      <c r="J5" s="90" t="n">
         <v>500</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="94" t="n">
+      <c r="O5" s="90" t="n">
         <v>800</v>
       </c>
     </row>
@@ -5840,192 +5571,192 @@
       <c r="B6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="94" t="n">
+      <c r="E6" s="90" t="n">
         <v>300</v>
       </c>
       <c r="G6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="94" t="n">
+      <c r="J6" s="90" t="n">
         <v>600</v>
       </c>
       <c r="L6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="94" t="n">
+      <c r="O6" s="90" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="75" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
+        <v>85</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="96" t="e">
+        <v>86</v>
+      </c>
+      <c r="F10" s="92" t="e">
         <f aca="false">1-D10/C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="96" t="e">
+        <v>87</v>
+      </c>
+      <c r="F11" s="92" t="e">
         <f aca="false">1-D11/C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="96" t="e">
+        <v>88</v>
+      </c>
+      <c r="F12" s="92" t="e">
         <f aca="false">1-D12/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="96" t="e">
+        <v>89</v>
+      </c>
+      <c r="F13" s="92" t="e">
         <f aca="false">1-D13/C13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="96" t="e">
+        <v>90</v>
+      </c>
+      <c r="F14" s="92" t="e">
         <f aca="false">1-D14/C14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="96" t="e">
+        <v>91</v>
+      </c>
+      <c r="F15" s="92" t="e">
         <f aca="false">1-D15/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="N15" s="95"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="N15" s="91"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="96" t="e">
+        <v>92</v>
+      </c>
+      <c r="F16" s="92" t="e">
         <f aca="false">1-D16/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="96" t="e">
+        <v>93</v>
+      </c>
+      <c r="F17" s="92" t="e">
         <f aca="false">1-D17/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="96" t="e">
+        <v>94</v>
+      </c>
+      <c r="F18" s="92" t="e">
         <f aca="false">1-D18/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="96" t="e">
+        <v>95</v>
+      </c>
+      <c r="F19" s="92" t="e">
         <f aca="false">1-D19/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="96" t="e">
+        <v>96</v>
+      </c>
+      <c r="F20" s="92" t="e">
         <f aca="false">1-D20/C20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="96" t="e">
+        <v>97</v>
+      </c>
+      <c r="F21" s="92" t="e">
         <f aca="false">1-D21/C21</f>
         <v>#DIV/0!</v>
       </c>

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -15,11 +15,14 @@
     <sheet name="Сведения об исполнении бюджета" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Статус достижения результатов" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Динамика достижения КТ" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Данные для диаграмм" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Cведения о достижении РКТМ" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Данные для диаграмм" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Динамика достижения КТ'!$A$1:$N$33</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Ключевые риски'!$A$1:$E$27</definedName>
+    <definedName function="false" hidden="false" name="_ftn1" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="_ftnref1" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_ftn1" vbProcedure="false">'Титульный лист'!$B$20</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_ftnref1" vbProcedure="false">'Титульный лист'!$H$1</definedName>
   </definedNames>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t xml:space="preserve">Руководитель </t>
   </si>
@@ -356,6 +359,27 @@
     <t xml:space="preserve">контрольных точек</t>
   </si>
   <si>
+    <t xml:space="preserve">6. Cведения о достижении результатов, контрольных точек и мероприятий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уровень контроля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование результата, контрольной точки, мероприятия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок реализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответственный исполнитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">факт/ прогноз</t>
+  </si>
+  <si>
     <t xml:space="preserve">Федеральный бюджет</t>
   </si>
   <si>
@@ -420,16 +444,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="000"/>
     <numFmt numFmtId="168" formatCode="&quot;Основной&quot;"/>
     <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -634,6 +659,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -774,7 +813,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1135,7 +1174,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1147,11 +1206,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,7 +1287,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1435,7 +1494,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1642,7 +1701,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1849,7 +1908,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1860,10 +1919,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00770572251287667"/>
-          <c:y val="0.0555740987983979"/>
-          <c:w val="0.992213164618567"/>
-          <c:h val="0.864903204272363"/>
+          <c:x val="0.00770634759683634"/>
+          <c:y val="0.0555833750625939"/>
+          <c:w val="0.992131413506388"/>
+          <c:h val="0.864713737272576"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3769,11 +3828,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89937746"/>
-        <c:axId val="60322108"/>
+        <c:axId val="59149616"/>
+        <c:axId val="13823284"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89937746"/>
+        <c:axId val="59149616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,14 +3864,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60322108"/>
+        <c:crossAx val="13823284"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60322108"/>
+        <c:axId val="13823284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -3846,7 +3905,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89937746"/>
+        <c:crossAx val="59149616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3916,9 +3975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3927,7 +3986,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6152400" y="1478160"/>
-        <a:ext cx="2023560" cy="1305360"/>
+        <a:ext cx="2022840" cy="1304640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3946,9 +4005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158760</xdr:colOff>
+      <xdr:colOff>158040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3957,7 +4016,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3102840" y="1491480"/>
-        <a:ext cx="1892520" cy="1305720"/>
+        <a:ext cx="1891800" cy="1305000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3976,9 +4035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
+      <xdr:colOff>213480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3987,7 +4046,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1478160"/>
-        <a:ext cx="1761480" cy="1305360"/>
+        <a:ext cx="1760760" cy="1304640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4011,9 +4070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4022,7 +4081,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="590400" y="1112760"/>
-        <a:ext cx="8876160" cy="4313880"/>
+        <a:ext cx="8875440" cy="4313160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4066,8 +4125,8 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5401,7 +5460,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5477,10 +5536,109 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="91"/>
+    </row>
+    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.886111111111111" bottom="0.886111111111111" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="57" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5490,7 +5648,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="60" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -5509,41 +5667,41 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="58" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="90" t="n">
+      <c r="E4" s="95" t="n">
         <v>400</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="90" t="n">
+      <c r="J4" s="95" t="n">
         <v>400</v>
       </c>
       <c r="L4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="90" t="n">
+      <c r="O4" s="95" t="n">
         <v>700</v>
       </c>
     </row>
@@ -5551,19 +5709,19 @@
       <c r="B5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="90" t="n">
+      <c r="E5" s="95" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="90" t="n">
+      <c r="J5" s="95" t="n">
         <v>500</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="90" t="n">
+      <c r="O5" s="95" t="n">
         <v>800</v>
       </c>
     </row>
@@ -5571,192 +5729,192 @@
       <c r="B6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="90" t="n">
+      <c r="E6" s="95" t="n">
         <v>300</v>
       </c>
       <c r="G6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="90" t="n">
+      <c r="J6" s="95" t="n">
         <v>600</v>
       </c>
       <c r="L6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="90" t="n">
+      <c r="O6" s="95" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="75" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
+        <v>92</v>
+      </c>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="92" t="e">
+        <v>93</v>
+      </c>
+      <c r="F10" s="97" t="e">
         <f aca="false">1-D10/C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="92" t="e">
+        <v>94</v>
+      </c>
+      <c r="F11" s="97" t="e">
         <f aca="false">1-D11/C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="92" t="e">
+        <v>95</v>
+      </c>
+      <c r="F12" s="97" t="e">
         <f aca="false">1-D12/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="92" t="e">
+        <v>96</v>
+      </c>
+      <c r="F13" s="97" t="e">
         <f aca="false">1-D13/C13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="92" t="e">
+        <v>97</v>
+      </c>
+      <c r="F14" s="97" t="e">
         <f aca="false">1-D14/C14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="92" t="e">
+        <v>98</v>
+      </c>
+      <c r="F15" s="97" t="e">
         <f aca="false">1-D15/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="N15" s="91"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="N15" s="96"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="92" t="e">
+        <v>99</v>
+      </c>
+      <c r="F16" s="97" t="e">
         <f aca="false">1-D16/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="92" t="e">
+        <v>100</v>
+      </c>
+      <c r="F17" s="97" t="e">
         <f aca="false">1-D17/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="92" t="e">
+        <v>101</v>
+      </c>
+      <c r="F18" s="97" t="e">
         <f aca="false">1-D18/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="92" t="e">
+        <v>102</v>
+      </c>
+      <c r="F19" s="97" t="e">
         <f aca="false">1-D19/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="92" t="e">
+        <v>103</v>
+      </c>
+      <c r="F20" s="97" t="e">
         <f aca="false">1-D20/C20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="92" t="e">
+        <v>104</v>
+      </c>
+      <c r="F21" s="97" t="e">
         <f aca="false">1-D21/C21</f>
         <v>#DIV/0!</v>
       </c>

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -14,12 +14,10 @@
     <sheet name="Статус исполнения бюджета" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Сведения об исполнении бюджета" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Статус достижения результатов" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Динамика достижения КТ" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Cведения о достижении РКТМ" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Данные для диаграмм" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Cведения о достижении РКТМ" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Данные для диаграмм" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Динамика достижения КТ'!$A$1:$N$33</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Ключевые риски'!$A$1:$E$27</definedName>
     <definedName function="false" hidden="false" name="_ftn1" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="_ftnref1" vbProcedure="false">#REF!</definedName>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t xml:space="preserve">Руководитель </t>
   </si>
@@ -347,18 +345,6 @@
     <t xml:space="preserve">Достижение контрольных точек</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Динамика достижения контрольных точек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просрочено контрольных точек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Риски несвоевременного достижения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">контрольных точек</t>
-  </si>
-  <si>
     <t xml:space="preserve">6. Cведения о достижении результатов, контрольных точек и мероприятий</t>
   </si>
   <si>
@@ -444,17 +430,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="000"/>
-    <numFmt numFmtId="168" formatCode="&quot;Основной&quot;"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -642,24 +627,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA6A6A6"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF595959"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -696,7 +663,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
-        <bgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -813,7 +780,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1166,35 +1133,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1202,15 +1161,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,8 +1199,8 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF558ED5"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1249,7 +1208,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1266,28 +1225,28 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF558ED5"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF9BBB59"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FFA6A6A6"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF69AB42"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1494,7 +1453,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1701,7 +1660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1908,2062 +1867,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.00770634759683634"/>
-          <c:y val="0.0555833750625939"/>
-          <c:w val="0.992131413506388"/>
-          <c:h val="0.864713737272576"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$C$9:$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>План</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="558ed5"/>
-            </a:solidFill>
-            <a:ln w="38160">
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="558ed5"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="558ed5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="1"/>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="l"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Янв</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Фев</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Мар</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Апр</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Май</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Июн</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Июл</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Авг</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Сент</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Окт</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Ноя</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Дек</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Данные для диаграмм'!$C$10:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$D$9:$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Факт</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="69ab42"/>
-            </a:solidFill>
-            <a:ln w="38160">
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="69ab42"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="69ab42"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="1"/>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Янв</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Фев</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Мар</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Апр</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Май</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Июн</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Июл</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Авг</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Сент</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Окт</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Ноя</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Дек</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Данные для диаграмм'!$D$10:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$E$9:$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Прогноз</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92d050"/>
-            </a:solidFill>
-            <a:ln w="254160">
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-              <a:ln w="254160">
-                <a:solidFill>
-                  <a:srgbClr val="92d050"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-              <a:ln w="254160">
-                <a:solidFill>
-                  <a:srgbClr val="92d050"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-              <a:ln w="254160">
-                <a:solidFill>
-                  <a:srgbClr val="92d050"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="92d050"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-              <a:ln w="38160">
-                <a:solidFill>
-                  <a:srgbClr val="92d050"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92d050"/>
-              </a:solidFill>
-              <a:ln w="254160">
-                <a:solidFill>
-                  <a:srgbClr val="92d050"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="1"/>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:p>
-                    <a:fld id="{C6E532D1-94AA-4530-83CD-9D8D3881F47C}" type="VALUE">
-                      <a:rPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-                        <a:latin typeface="Arial"/>
-                      </a:rPr>
-                      <a:t>[ЗНАЧЕНИЕ]</a:t>
-                    </a:fld>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-                        <a:latin typeface="Arial"/>
-                      </a:rPr>
-                      <a:t>[ЗНАЧ</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Янв</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Фев</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Мар</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Апр</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Май</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Июн</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Июл</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Авг</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Сент</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Окт</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Ноя</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Дек</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Данные для диаграмм'!$E$10:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$F$9:$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>процент отставания</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:ln w="28440">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="0%" sourceLinked="0"/>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="a6a6a6"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="a6a6a6"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="a6a6a6"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="a6a6a6"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="a6a6a6"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="a6a6a6"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Данные для диаграмм'!$B$10:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Янв</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Фев</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Мар</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Апр</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Май</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Июн</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Июл</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Авг</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Сент</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Окт</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Ноя</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Дек</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Данные для диаграмм'!$F$10:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="59149616"/>
-        <c:axId val="13823284"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="59149616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13823284"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="13823284"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="&quot;Основной&quot;" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59149616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.820358494455209"/>
-          <c:y val="0.591504421416563"/>
-          <c:w val="0.158500666474282"/>
-          <c:h val="0.335634939480575"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25560">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3975,9 +1878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3986,7 +1889,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6152400" y="1478160"/>
-        <a:ext cx="2022840" cy="1304640"/>
+        <a:ext cx="2022480" cy="1304280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4005,9 +1908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158040</xdr:colOff>
+      <xdr:colOff>157680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4016,7 +1919,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3102840" y="1491480"/>
-        <a:ext cx="1891800" cy="1305000"/>
+        <a:ext cx="1891440" cy="1304640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4035,9 +1938,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
+      <xdr:colOff>213120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4046,46 +1949,11 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1478160"/>
-        <a:ext cx="1760760" cy="1304640"/>
+        <a:ext cx="1760400" cy="1304280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="590400" y="1112760"/>
-        <a:ext cx="8875440" cy="4313160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5457,85 +3325,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="58" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="58" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5549,65 +3338,65 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="89"/>
+    </row>
+    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91"/>
-    </row>
-    <row r="3" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="93" t="s">
+      <c r="H3" s="90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="92" t="s">
+      <c r="F4" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="94"/>
+      <c r="E5" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5630,7 +3419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5648,7 +3437,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -5667,41 +3456,41 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="95" t="n">
+      <c r="E4" s="93" t="n">
         <v>400</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="95" t="n">
+      <c r="J4" s="93" t="n">
         <v>400</v>
       </c>
       <c r="L4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="95" t="n">
+      <c r="O4" s="93" t="n">
         <v>700</v>
       </c>
     </row>
@@ -5709,19 +3498,19 @@
       <c r="B5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="95" t="n">
+      <c r="E5" s="93" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="95" t="n">
+      <c r="J5" s="93" t="n">
         <v>500</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="95" t="n">
+      <c r="O5" s="93" t="n">
         <v>800</v>
       </c>
     </row>
@@ -5729,192 +3518,192 @@
       <c r="B6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="95" t="n">
+      <c r="E6" s="93" t="n">
         <v>300</v>
       </c>
       <c r="G6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="95" t="n">
+      <c r="J6" s="93" t="n">
         <v>600</v>
       </c>
       <c r="L6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="95" t="n">
+      <c r="O6" s="93" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="97" t="e">
+        <v>89</v>
+      </c>
+      <c r="F10" s="95" t="e">
         <f aca="false">1-D10/C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="96"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="97" t="e">
+        <v>90</v>
+      </c>
+      <c r="F11" s="95" t="e">
         <f aca="false">1-D11/C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="96"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="97" t="e">
+        <v>91</v>
+      </c>
+      <c r="F12" s="95" t="e">
         <f aca="false">1-D12/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="97" t="e">
+        <v>92</v>
+      </c>
+      <c r="F13" s="95" t="e">
         <f aca="false">1-D13/C13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="97" t="e">
+        <v>93</v>
+      </c>
+      <c r="F14" s="95" t="e">
         <f aca="false">1-D14/C14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="97" t="e">
+        <v>94</v>
+      </c>
+      <c r="F15" s="95" t="e">
         <f aca="false">1-D15/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="N15" s="96"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="N15" s="94"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="97" t="e">
+        <v>95</v>
+      </c>
+      <c r="F16" s="95" t="e">
         <f aca="false">1-D16/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="97" t="e">
+        <v>96</v>
+      </c>
+      <c r="F17" s="95" t="e">
         <f aca="false">1-D17/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="96"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="97" t="e">
+        <v>97</v>
+      </c>
+      <c r="F18" s="95" t="e">
         <f aca="false">1-D18/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="97" t="e">
+        <v>98</v>
+      </c>
+      <c r="F19" s="95" t="e">
         <f aca="false">1-D19/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="97" t="e">
+        <v>99</v>
+      </c>
+      <c r="F20" s="95" t="e">
         <f aca="false">1-D20/C20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="97" t="e">
+        <v>100</v>
+      </c>
+      <c r="F21" s="95" t="e">
         <f aca="false">1-D21/C21</f>
         <v>#DIV/0!</v>
       </c>

--- a/app/reports/templates/project_progress_report.xlsx
+++ b/app/reports/templates/project_progress_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t xml:space="preserve">Руководитель </t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ответственный исполнитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подтверждающие файлы</t>
   </si>
   <si>
     <t xml:space="preserve">план</t>
@@ -1287,7 +1290,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1364,6 +1367,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1387,6 +1391,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1410,6 +1415,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -1431,6 +1437,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1494,7 +1501,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1571,6 +1578,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1594,6 +1602,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1617,6 +1626,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -1638,6 +1648,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1701,7 +1712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1778,6 +1789,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1801,6 +1813,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1824,6 +1837,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -1845,6 +1859,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1908,7 +1923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1919,10 +1934,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00770634759683634"/>
-          <c:y val="0.0555833750625939"/>
-          <c:w val="0.992131413506388"/>
-          <c:h val="0.864713737272576"/>
+          <c:x val="0.00770697278221717"/>
+          <c:y val="0.0555926544240401"/>
+          <c:w val="0.992049649129923"/>
+          <c:h val="0.864524207011686"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2154,6 +2169,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2177,6 +2193,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2200,6 +2217,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2223,6 +2241,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -2246,6 +2265,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -2269,6 +2289,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -2292,6 +2313,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -2315,6 +2337,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -2338,6 +2361,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -2361,6 +2385,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -2384,6 +2409,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -2407,6 +2433,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -2428,6 +2455,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -2747,6 +2775,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2770,6 +2799,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2793,6 +2823,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2816,6 +2847,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -2839,6 +2871,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -2862,6 +2895,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -2885,6 +2919,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -2908,6 +2943,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -2931,6 +2967,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -2954,6 +2991,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -2977,6 +3015,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -3000,6 +3039,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -3021,6 +3061,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -3277,6 +3318,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -3300,6 +3342,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -3323,6 +3366,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -3346,6 +3390,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -3369,6 +3414,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -3392,6 +3438,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -3413,6 +3460,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -3614,6 +3662,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3637,6 +3686,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -3660,6 +3710,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -3683,6 +3734,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -3706,6 +3758,7 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -3727,6 +3780,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -3828,11 +3882,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="59149616"/>
-        <c:axId val="13823284"/>
+        <c:axId val="87351944"/>
+        <c:axId val="55197461"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59149616"/>
+        <c:axId val="87351944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,14 +3918,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13823284"/>
+        <c:crossAx val="55197461"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13823284"/>
+        <c:axId val="55197461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -3905,7 +3959,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59149616"/>
+        <c:crossAx val="87351944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3919,6 +3973,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -3929,6 +3984,7 @@
           <c:h val="0.335634939480575"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25560">
@@ -3975,9 +4031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3986,7 +4042,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6152400" y="1478160"/>
-        <a:ext cx="2022840" cy="1304640"/>
+        <a:ext cx="2022120" cy="1303920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4005,9 +4061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158040</xdr:colOff>
+      <xdr:colOff>157320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4016,7 +4072,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3102840" y="1491480"/>
-        <a:ext cx="1891800" cy="1305000"/>
+        <a:ext cx="1891080" cy="1304280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4035,9 +4091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
+      <xdr:colOff>212760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4046,7 +4102,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="296640" y="1478160"/>
-        <a:ext cx="1760760" cy="1304640"/>
+        <a:ext cx="1760040" cy="1303920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4070,9 +4126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4081,7 +4137,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="590400" y="1112760"/>
-        <a:ext cx="8875440" cy="4313160"/>
+        <a:ext cx="8874720" cy="4312440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4125,7 +4181,7 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5536,10 +5592,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5549,8 +5605,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,6 +5621,7 @@
       <c r="F1" s="90"/>
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="91"/>
@@ -5589,6 +5647,9 @@
         <v>82</v>
       </c>
       <c r="H3" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="92" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5598,20 +5659,21 @@
       <c r="C4" s="93"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -5619,6 +5681,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.886111111111111" bottom="0.886111111111111" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5648,7 +5711,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -5667,22 +5730,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>86</v>
-      </c>
       <c r="J3" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="58" t="s">
-        <v>86</v>
-      </c>
       <c r="O3" s="58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,19 +5810,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
@@ -5769,7 +5832,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" s="97" t="e">
         <f aca="false">1-D10/C10</f>
@@ -5783,7 +5846,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" s="97" t="e">
         <f aca="false">1-D11/C11</f>
@@ -5797,7 +5860,7 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="97" t="e">
         <f aca="false">1-D12/C12</f>
@@ -5811,7 +5874,7 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="97" t="e">
         <f aca="false">1-D13/C13</f>
@@ -5825,7 +5888,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="97" t="e">
         <f aca="false">1-D14/C14</f>
@@ -5834,7 +5897,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="97" t="e">
         <f aca="false">1-D15/C15</f>
@@ -5847,7 +5910,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="97" t="e">
         <f aca="false">1-D16/C16</f>
@@ -5861,7 +5924,7 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="97" t="e">
         <f aca="false">1-D17/C17</f>
@@ -5875,7 +5938,7 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="97" t="e">
         <f aca="false">1-D18/C18</f>
@@ -5889,7 +5952,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="97" t="e">
         <f aca="false">1-D19/C19</f>
@@ -5903,7 +5966,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="97" t="e">
         <f aca="false">1-D20/C20</f>
@@ -5912,7 +5975,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="97" t="e">
         <f aca="false">1-D21/C21</f>
